--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Files\Ostravská univerzita\Magisterské studium\Předměty\1. Semestr\7RPR1\Projekty\EuroKlíčenka 2.0\Repozitář\RPR1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Files\Ostravská univerzita\Magisterské studium\Předměty\1. Semestr\7RPR1\Projekty\EuroKlíčenka 2.0\Repozitář\RPR1\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE884A99-46B2-46B6-89BA-CC2D51583ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2D7566-B5FE-4A92-8FDE-95B24120481B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Risk</t>
   </si>
@@ -65,13 +65,55 @@
   </si>
   <si>
     <t>Položky</t>
+  </si>
+  <si>
+    <t>MA (Mitigační akce)</t>
+  </si>
+  <si>
+    <t>Ztráta přehledu</t>
+  </si>
+  <si>
+    <t>Vysoký</t>
+  </si>
+  <si>
+    <t>Trakování veškeré aktivity v Jire. Pravidelné updaty v MS Teams.</t>
+  </si>
+  <si>
+    <t>Členové týmu nebudou na stejné stránce, ohledně stavu projektu. Může dojít k nevědomosti, co už je hotové a co je třeba udělat dál.</t>
+  </si>
+  <si>
+    <t>Bylo by nutné úplně změnit použitou architekturu, po případě vytvořit 2. aplikaci.</t>
+  </si>
+  <si>
+    <t>Vyjasnění situace s konzultantem.</t>
+  </si>
+  <si>
+    <t>Podpora pro IOS</t>
+  </si>
+  <si>
+    <t>Neznalost architektury</t>
+  </si>
+  <si>
+    <t>Bez známosti použité architektury není možné začít vývoj projektu.</t>
+  </si>
+  <si>
+    <t>vysoký</t>
+  </si>
+  <si>
+    <t>Provnat možné existující architektury =&gt; vytvořit dokument popisující možnou použitou. Vytvořit prototyp.</t>
+  </si>
+  <si>
+    <t>viz položka v Jire</t>
+  </si>
+  <si>
+    <t>EuroKlíčenka 2.0 - RiskList</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +152,55 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,8 +219,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -288,36 +392,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Hypertextový odkaz" xfId="4" builtinId="8"/>
+    <cellStyle name="Neutrální" xfId="3" builtinId="28"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Správně" xfId="1" builtinId="26"/>
+    <cellStyle name="Špatně" xfId="2" builtinId="27"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -333,15 +538,74 @@
         <charset val="238"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
         <right/>
         <top/>
         <bottom/>
@@ -365,15 +629,20 @@
         <charset val="238"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
         </left>
         <right style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -423,15 +692,18 @@
         <charset val="238"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
+        <left/>
         <right style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -456,9 +728,153 @@
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right/>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -487,197 +903,13 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -690,14 +922,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B2:F7" headerRowDxfId="5" tableBorderDxfId="11">
-  <autoFilter ref="B2:F7" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{72B2E65B-D615-42C2-9AAE-33E400E5293A}" name="Položky" totalsRowLabel="Celkem" dataDxfId="10" totalsRowDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{BC20C5C9-5919-4826-A623-300689436274}" name="Risk" dataDxfId="9" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{0C8BAE52-5BE6-4F40-BB1E-DB32549DF409}" name="Dopad" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{8A33ED25-90FD-4225-9B0A-D74C7E54E6CD}" name="Pravděpodobnost" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{8D4061F9-96CF-4B77-9653-49FCDCF301F4}" name="Vliv" totalsRowFunction="count" dataDxfId="6" totalsRowDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G8" headerRowDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="B3:G8" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{72B2E65B-D615-42C2-9AAE-33E400E5293A}" name="Položky" totalsRowLabel="Celkem" dataDxfId="9" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{BC20C5C9-5919-4826-A623-300689436274}" name="Risk" dataDxfId="7" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{0C8BAE52-5BE6-4F40-BB1E-DB32549DF409}" name="Dopad" dataDxfId="5" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{8A33ED25-90FD-4225-9B0A-D74C7E54E6CD}" name="Pravděpodobnost" dataDxfId="3" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{8D4061F9-96CF-4B77-9653-49FCDCF301F4}" name="Vliv" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{B3C5C666-1EB6-4DC5-ABA1-16D42A2B0116}" name="MA (Mitigační akce)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -966,102 +1199,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F32"/>
+  <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="4" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="2:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="2:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+    <row r="4" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+    <row r="5" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="9"/>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+    <row r="6" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="9"/>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="7" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="9"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
-    <row r="7" spans="2:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+    <row r="8" spans="2:8" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="10"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
-    <row r="8" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1069,11 +1355,16 @@
     <row r="30" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{DA384BF8-56CD-43AC-9705-4603A93A457B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Files\Ostravská univerzita\Magisterské studium\Předměty\1. Semestr\7RPR1\Projekty\EuroKlíčenka 2.0\Repozitář\RPR1\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2D7566-B5FE-4A92-8FDE-95B24120481B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F79DCB-AFD0-41F8-A850-284D4C55FE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Risk</t>
   </si>
@@ -46,36 +46,12 @@
     <t>Pravděpodobnost</t>
   </si>
   <si>
-    <t>Vliv</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Položky</t>
-  </si>
-  <si>
     <t>MA (Mitigační akce)</t>
   </si>
   <si>
     <t>Ztráta přehledu</t>
   </si>
   <si>
-    <t>Vysoký</t>
-  </si>
-  <si>
     <t>Trakování veškeré aktivity v Jire. Pravidelné updaty v MS Teams.</t>
   </si>
   <si>
@@ -88,18 +64,12 @@
     <t>Vyjasnění situace s konzultantem.</t>
   </si>
   <si>
-    <t>Podpora pro IOS</t>
-  </si>
-  <si>
     <t>Neznalost architektury</t>
   </si>
   <si>
     <t>Bez známosti použité architektury není možné začít vývoj projektu.</t>
   </si>
   <si>
-    <t>vysoký</t>
-  </si>
-  <si>
     <t>Provnat možné existující architektury =&gt; vytvořit dokument popisující možnou použitou. Vytvořit prototyp.</t>
   </si>
   <si>
@@ -107,13 +77,40 @@
   </si>
   <si>
     <t>EuroKlíčenka 2.0 - RiskList</t>
+  </si>
+  <si>
+    <t>Priorita</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Co to je za druh risku.</t>
+  </si>
+  <si>
+    <t>Jak ovlivní následující vývoj projektu</t>
+  </si>
+  <si>
+    <t>Jak moc je daný risk brán v úvahu v tento čas/jak moc se s ním právě počítá</t>
+  </si>
+  <si>
+    <t>Možné provedilné akce, snižující šanci nastání risku</t>
+  </si>
+  <si>
+    <t>Jak vysoká je šance, že risk projekt ohrozí v tuto dobu.</t>
+  </si>
+  <si>
+    <t>Podpora pro iOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,14 +137,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="8" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -200,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +223,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -349,19 +344,6 @@
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right/>
-      <top style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
       <top style="thin">
         <color theme="1" tint="0.34998626667073579"/>
       </top>
@@ -434,38 +416,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -487,30 +552,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hypertextový odkaz" xfId="4" builtinId="8"/>
@@ -519,10 +611,10 @@
     <cellStyle name="Správně" xfId="1" builtinId="26"/>
     <cellStyle name="Špatně" xfId="2" builtinId="27"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="12">
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -540,9 +632,46 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+        <left/>
+        <right style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
-        </left>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right/>
         <top style="thin">
           <color theme="1" tint="0.34998626667073579"/>
@@ -570,7 +699,7 @@
         <charset val="238"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -629,11 +758,107 @@
         <charset val="238"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </right>
@@ -692,174 +917,13 @@
         <charset val="238"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </left>
         <right style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
         <top/>
         <bottom/>
       </border>
@@ -922,15 +986,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G8" headerRowDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G8" headerRowDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="B3:G8" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72B2E65B-D615-42C2-9AAE-33E400E5293A}" name="Položky" totalsRowLabel="Celkem" dataDxfId="9" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{BC20C5C9-5919-4826-A623-300689436274}" name="Risk" dataDxfId="7" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{0C8BAE52-5BE6-4F40-BB1E-DB32549DF409}" name="Dopad" dataDxfId="5" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{8A33ED25-90FD-4225-9B0A-D74C7E54E6CD}" name="Pravděpodobnost" dataDxfId="3" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{8D4061F9-96CF-4B77-9653-49FCDCF301F4}" name="Vliv" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{B3C5C666-1EB6-4DC5-ABA1-16D42A2B0116}" name="MA (Mitigační akce)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{72B2E65B-D615-42C2-9AAE-33E400E5293A}" name="ID" totalsRowLabel="Celkem" dataDxfId="1">
+      <calculatedColumnFormula>"R"&amp;ROW($A1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{BC20C5C9-5919-4826-A623-300689436274}" name="Risk" dataDxfId="0" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{0C8BAE52-5BE6-4F40-BB1E-DB32549DF409}" name="Dopad" dataDxfId="7" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{B3C5C666-1EB6-4DC5-ABA1-16D42A2B0116}" name="MA (Mitigační akce)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{8D4061F9-96CF-4B77-9653-49FCDCF301F4}" name="Priorita" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8A33ED25-90FD-4225-9B0A-D74C7E54E6CD}" name="Pravděpodobnost" dataDxfId="4" totalsRowDxfId="5" dataCellStyle="Správně"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1199,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H33"/>
+  <dimension ref="B1:K33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,26 +1277,31 @@
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+    <row r="1" spans="2:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="2:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>9</v>
+    <row r="3" spans="2:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -1239,106 +1310,143 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="str">
+        <f t="shared" ref="B4:B8" si="0">"R"&amp;ROW($A1)</f>
+        <v>R1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="20">
+        <v>5</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>R2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="20">
+        <v>4</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>R3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="20">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
+      <c r="G6" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>13</v>
+    <row r="7" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>R4</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="J7" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>22</v>
-      </c>
+    <row r="8" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>R5</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
     </row>
-    <row r="6" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1357,9 +1465,9 @@
     <row r="32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{DA384BF8-56CD-43AC-9705-4603A93A457B}"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{4F76D589-BBB3-407C-8F79-8A574AA13CB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User Files\Ostravská univerzita\Magisterské studium\Předměty\1. Semestr\7RPR1\Projekty\EuroKlíčenka 2.0\Repozitář\RPR1\Dokumenty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ondrej\Documents\GitHub\RPR1\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F79DCB-AFD0-41F8-A850-284D4C55FE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124DDFCE-AF76-4796-91C8-864F2E78EF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Risk</t>
   </si>
@@ -104,18 +104,44 @@
   </si>
   <si>
     <t>Podpora pro iOS</t>
+  </si>
+  <si>
+    <t>Nedostatek komunikace</t>
+  </si>
+  <si>
+    <t>Slaba komunikace v teamu bude mít za následek nejasnosti v daných procesech a může mít za následek nesplnění různých úkolu</t>
+  </si>
+  <si>
+    <t>V teamu si napsat komunikační plán, který bude obsahovat: časový rámec úkolu,cíl a výstup z každé komunikace</t>
+  </si>
+  <si>
+    <t>Nové funkce mohou vyžadovat změny infrastruktury projektu</t>
+  </si>
+  <si>
+    <t>Dodání projektu nebude splněno,nefunkční aplikace</t>
+  </si>
+  <si>
+    <t>Provádět pravidelné testování aplikace,  mít  urřitou rezervu času na optimalizaci aplikace (cca 1-2 týden)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,8 +214,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +262,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -509,71 +554,65 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -588,20 +627,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -612,6 +660,253 @@
     <cellStyle name="Špatně" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -682,253 +977,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="medium">
           <color theme="1" tint="0.34998626667073579"/>
@@ -989,14 +1037,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G8" headerRowDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="B3:G8" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72B2E65B-D615-42C2-9AAE-33E400E5293A}" name="ID" totalsRowLabel="Celkem" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{72B2E65B-D615-42C2-9AAE-33E400E5293A}" name="ID" totalsRowLabel="Celkem" dataDxfId="9">
       <calculatedColumnFormula>"R"&amp;ROW($A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BC20C5C9-5919-4826-A623-300689436274}" name="Risk" dataDxfId="0" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{0C8BAE52-5BE6-4F40-BB1E-DB32549DF409}" name="Dopad" dataDxfId="7" totalsRowDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{B3C5C666-1EB6-4DC5-ABA1-16D42A2B0116}" name="MA (Mitigační akce)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{8D4061F9-96CF-4B77-9653-49FCDCF301F4}" name="Priorita" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{8A33ED25-90FD-4225-9B0A-D74C7E54E6CD}" name="Pravděpodobnost" dataDxfId="4" totalsRowDxfId="5" dataCellStyle="Správně"/>
+    <tableColumn id="2" xr3:uid="{BC20C5C9-5919-4826-A623-300689436274}" name="Risk" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0C8BAE52-5BE6-4F40-BB1E-DB32549DF409}" name="Dopad" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{B3C5C666-1EB6-4DC5-ABA1-16D42A2B0116}" name="MA (Mitigační akce)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{8D4061F9-96CF-4B77-9653-49FCDCF301F4}" name="Priorita" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8A33ED25-90FD-4225-9B0A-D74C7E54E6CD}" name="Pravděpodobnost" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Správně"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1267,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,17 +1338,17 @@
   <sheetData>
     <row r="1" spans="2:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="2:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1318,126 +1366,146 @@
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="str">
+      <c r="B4" s="5" t="str">
         <f t="shared" ref="B4:B8" si="0">"R"&amp;ROW($A1)</f>
         <v>R1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>5</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="25">
         <v>0.25</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>R2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>4</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <v>0.75</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="str">
+      <c r="B6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>R3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>3</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="30">
         <v>0.5</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="str">
+      <c r="B7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>R4</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-      <c r="J7" s="31" t="s">
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>R5</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1465,7 +1533,7 @@
     <row r="32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{4F76D589-BBB3-407C-8F79-8A574AA13CB0}"/>
   </hyperlinks>

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ondrej\Documents\GitHub\RPR1\Dokumenty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EuroKlíčenka 2.0\RPR1\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124DDFCE-AF76-4796-91C8-864F2E78EF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF704D77-096A-4382-A6E1-001F4E3B85A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,20 +128,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,7 +214,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,20 +254,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -551,68 +531,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -627,29 +632,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1315,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1356,7 @@
       <c r="G2" s="16"/>
     </row>
     <row r="3" spans="2:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1366,10 +1374,10 @@
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1387,16 +1395,16 @@
       <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="31">
         <v>5</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>0.25</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1414,7 +1422,7 @@
       <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="32">
         <v>4</v>
       </c>
       <c r="G5" s="11">
@@ -1423,10 +1431,10 @@
       <c r="H5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1444,16 +1452,16 @@
       <c r="E6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="32">
         <v>3</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <v>0.5</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="22" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1465,7 +1473,7 @@
       <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1474,13 +1482,13 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="29">
         <v>0.5</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="23" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1501,11 +1509,11 @@
       <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="30">
         <v>0.25</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1541,7 @@
     <row r="32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{4F76D589-BBB3-407C-8F79-8A574AA13CB0}"/>
   </hyperlinks>

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EuroKlíčenka 2.0\RPR1\Dokumenty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF704D77-096A-4382-A6E1-001F4E3B85A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0363308-5888-477B-9A5B-B59132DF16BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RiskList" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Risk</t>
   </si>
@@ -122,18 +120,62 @@
   </si>
   <si>
     <t>Provádět pravidelné testování aplikace,  mít  urřitou rezervu času na optimalizaci aplikace (cca 1-2 týden)</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>Je potřeba během vývoje zajistit průběžné testování</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>Nekvalitní kód</t>
+  </si>
+  <si>
+    <t>Rychle psaný a nekontrolovaný kód vede ke slabé udržitelnosti a snížené použitelnosti (bugy) softwaru.</t>
+  </si>
+  <si>
+    <t>Náhlé změny cílů projektu</t>
+  </si>
+  <si>
+    <t>Promarněný čas, nekompletní funkce.</t>
+  </si>
+  <si>
+    <t>Je potřeba mít jasnou vizi.</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Ztráta personálu</t>
+  </si>
+  <si>
+    <t>Snížení efektivnosti celého týmu, nutnost doplnění práce ostatními členy s menším přehledem.</t>
+  </si>
+  <si>
+    <t>Vzájemná a častá komunikace mezi členy vývojového týmu. Obecná znalost práce týmu.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,7 +256,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,8 +296,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -275,122 +329,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -400,17 +338,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1" tint="0.499984740745262"/>
       </left>
@@ -532,132 +459,571 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
         <color theme="1" tint="0.34998626667073579"/>
       </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="9" borderId="35" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -667,35 +1033,9 @@
     <cellStyle name="Správně" xfId="1" builtinId="26"/>
     <cellStyle name="Špatně" xfId="2" builtinId="27"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -717,7 +1057,7 @@
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </left>
@@ -730,35 +1070,6 @@
         <bottom style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -843,36 +1154,7 @@
         <charset val="238"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -884,35 +1166,6 @@
         <bottom style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -973,7 +1226,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
@@ -982,6 +1235,120 @@
         <bottom style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1042,17 +1409,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G8" headerRowDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="B3:G8" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G11" headerRowDxfId="12" dataDxfId="0" tableBorderDxfId="11">
+  <autoFilter ref="B3:G11" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72B2E65B-D615-42C2-9AAE-33E400E5293A}" name="ID" totalsRowLabel="Celkem" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{72B2E65B-D615-42C2-9AAE-33E400E5293A}" name="ID" totalsRowLabel="Celkem" dataDxfId="6">
       <calculatedColumnFormula>"R"&amp;ROW($A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BC20C5C9-5919-4826-A623-300689436274}" name="Risk" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{0C8BAE52-5BE6-4F40-BB1E-DB32549DF409}" name="Dopad" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{B3C5C666-1EB6-4DC5-ABA1-16D42A2B0116}" name="MA (Mitigační akce)" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{8D4061F9-96CF-4B77-9653-49FCDCF301F4}" name="Priorita" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{8A33ED25-90FD-4225-9B0A-D74C7E54E6CD}" name="Pravděpodobnost" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Správně"/>
+    <tableColumn id="2" xr3:uid="{BC20C5C9-5919-4826-A623-300689436274}" name="Risk" dataDxfId="5" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{0C8BAE52-5BE6-4F40-BB1E-DB32549DF409}" name="Dopad" dataDxfId="4" totalsRowDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{B3C5C666-1EB6-4DC5-ABA1-16D42A2B0116}" name="MA (Mitigační akce)" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{8D4061F9-96CF-4B77-9653-49FCDCF301F4}" name="Priorita" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{8A33ED25-90FD-4225-9B0A-D74C7E54E6CD}" name="Pravděpodobnost" dataDxfId="1" totalsRowDxfId="7" dataCellStyle="Správně"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1323,40 +1690,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="35.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" customWidth="1"/>
+    <col min="4" max="4" width="34.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" customWidth="1"/>
+    <col min="9" max="9" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" customWidth="1"/>
+    <col min="11" max="11" width="35.7265625" customWidth="1"/>
+    <col min="12" max="12" width="10.86328125" customWidth="1"/>
+    <col min="13" max="13" width="9.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="2:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="2" spans="2:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="2:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="2:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1374,174 +1741,231 @@
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="str">
+    <row r="4" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B4" s="2" t="str">
         <f t="shared" ref="B4:B8" si="0">"R"&amp;ROW($A1)</f>
         <v>R1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="32">
         <v>5</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="31">
         <v>0.25</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="str">
+    <row r="5" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B5" s="27" t="str">
         <f t="shared" si="0"/>
         <v>R2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="34">
         <v>4</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="33">
         <v>0.75</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="str">
+    <row r="6" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B6" s="27" t="str">
         <f t="shared" si="0"/>
         <v>R3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="36">
         <v>3</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="35">
         <v>0.5</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="str">
+    <row r="7" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B7" s="27" t="str">
         <f t="shared" si="0"/>
         <v>R4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="38">
         <v>5</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="37">
         <v>0.5</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="str">
+    <row r="8" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>R5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="40">
         <v>5</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="39">
         <v>0.25</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="42">
+        <v>3</v>
+      </c>
+      <c r="G9" s="41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="44">
+        <v>5</v>
+      </c>
+      <c r="G10" s="43">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B11" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="45">
+        <v>5</v>
+      </c>
+      <c r="G11" s="46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="13" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="14" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="15" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="16" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="17" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="18" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="19" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="20" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="21" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="22" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="23" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="24" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="25" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="29" ht="24.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="30" ht="24.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="31" ht="24.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="32" ht="24.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.75"/>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{4F76D589-BBB3-407C-8F79-8A574AA13CB0}"/>
   </hyperlinks>

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR1\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0363308-5888-477B-9A5B-B59132DF16BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AF84A6-C92C-4C52-975E-31E4A2E9BE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RiskList" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Risk</t>
   </si>
@@ -47,12 +50,6 @@
     <t>MA (Mitigační akce)</t>
   </si>
   <si>
-    <t>Ztráta přehledu</t>
-  </si>
-  <si>
-    <t>Trakování veškeré aktivity v Jire. Pravidelné updaty v MS Teams.</t>
-  </si>
-  <si>
     <t>Členové týmu nebudou na stejné stránce, ohledně stavu projektu. Může dojít k nevědomosti, co už je hotové a co je třeba udělat dál.</t>
   </si>
   <si>
@@ -68,12 +65,6 @@
     <t>Bez známosti použité architektury není možné začít vývoj projektu.</t>
   </si>
   <si>
-    <t>Provnat možné existující architektury =&gt; vytvořit dokument popisující možnou použitou. Vytvořit prototyp.</t>
-  </si>
-  <si>
-    <t>viz položka v Jire</t>
-  </si>
-  <si>
     <t>EuroKlíčenka 2.0 - RiskList</t>
   </si>
   <si>
@@ -98,39 +89,9 @@
     <t>Možné provedilné akce, snižující šanci nastání risku</t>
   </si>
   <si>
-    <t>Jak vysoká je šance, že risk projekt ohrozí v tuto dobu.</t>
-  </si>
-  <si>
     <t>Podpora pro iOS</t>
   </si>
   <si>
-    <t>Nedostatek komunikace</t>
-  </si>
-  <si>
-    <t>Slaba komunikace v teamu bude mít za následek nejasnosti v daných procesech a může mít za následek nesplnění různých úkolu</t>
-  </si>
-  <si>
-    <t>V teamu si napsat komunikační plán, který bude obsahovat: časový rámec úkolu,cíl a výstup z každé komunikace</t>
-  </si>
-  <si>
-    <t>Nové funkce mohou vyžadovat změny infrastruktury projektu</t>
-  </si>
-  <si>
-    <t>Dodání projektu nebude splněno,nefunkční aplikace</t>
-  </si>
-  <si>
-    <t>Provádět pravidelné testování aplikace,  mít  urřitou rezervu času na optimalizaci aplikace (cca 1-2 týden)</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>Je potřeba během vývoje zajistit průběžné testování</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
     <t>Nekvalitní kód</t>
   </si>
   <si>
@@ -143,39 +104,43 @@
     <t>Promarněný čas, nekompletní funkce.</t>
   </si>
   <si>
-    <t>Je potřeba mít jasnou vizi.</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>Ztráta personálu</t>
-  </si>
-  <si>
-    <t>Snížení efektivnosti celého týmu, nutnost doplnění práce ostatními členy s menším přehledem.</t>
-  </si>
-  <si>
-    <t>Vzájemná a častá komunikace mezi členy vývojového týmu. Obecná znalost práce týmu.</t>
+    <t>Porovnat možné existující architektury =&gt; vytvořit dokument popisující možnou použitou. Vytvořit prototyp.</t>
+  </si>
+  <si>
+    <t>Slabá komunikace</t>
+  </si>
+  <si>
+    <t>Trakování prováděné aktivity v Jire. Pravidelné updaty a souhrny v MS Teams.</t>
+  </si>
+  <si>
+    <t>Ztráta člena týmu</t>
+  </si>
+  <si>
+    <t>Jak vysoká je šance, že risk v tuto dobu projekt ohrozí.</t>
+  </si>
+  <si>
+    <t>Snížení efektivnosti celého týmu a zvýšení zátěže pro zbývající členy.</t>
+  </si>
+  <si>
+    <t>Častá komunikace mezi jednotlivými členy. Alespoň 2 členové týmu se orientují v dané oblasti.</t>
+  </si>
+  <si>
+    <t>Jasná vize (dokument), stabilní architektura.</t>
+  </si>
+  <si>
+    <t>Průběžné testování.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,14 +165,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -248,15 +205,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,11 +227,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
@@ -296,20 +241,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="42">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -459,137 +392,115 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -598,20 +509,22 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -621,6 +534,49 @@
     <border>
       <left style="medium">
         <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -630,267 +586,130 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
       </right>
       <top style="medium">
         <color theme="1" tint="0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.34998626667073579"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -902,141 +721,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="31" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="32" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="30" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="9" borderId="35" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Hypertextový odkaz" xfId="4" builtinId="8"/>
-    <cellStyle name="Neutrální" xfId="3" builtinId="28"/>
+  <cellStyles count="4">
+    <cellStyle name="Hypertextový odkaz" xfId="3" builtinId="8"/>
+    <cellStyle name="Neutrální" xfId="2" builtinId="28"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
-    <cellStyle name="Správně" xfId="1" builtinId="26"/>
-    <cellStyle name="Špatně" xfId="2" builtinId="27"/>
+    <cellStyle name="Špatně" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1057,12 +827,12 @@
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
+          <color theme="1" tint="0.34998626667073579"/>
         </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
         </right>
         <top style="thin">
           <color theme="1" tint="0.34998626667073579"/>
@@ -1070,102 +840,10 @@
         <bottom style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1187,10 +865,12 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
         <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
           <color theme="1" tint="0.34998626667073579"/>
@@ -1198,43 +878,7 @@
         <bottom style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
+        <vertical/>
       </border>
     </dxf>
     <dxf>
@@ -1311,6 +955,70 @@
         <charset val="238"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1340,6 +1048,38 @@
         <charset val="238"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color theme="1" tint="0.34998626667073579"/>
@@ -1352,6 +1092,43 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="medium">
           <color theme="1" tint="0.34998626667073579"/>
@@ -1363,6 +1140,9 @@
           <color theme="1" tint="0.34998626667073579"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1409,17 +1189,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G11" headerRowDxfId="12" dataDxfId="0" tableBorderDxfId="11">
-  <autoFilter ref="B3:G11" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G9" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="B3:G9" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{72B2E65B-D615-42C2-9AAE-33E400E5293A}" name="ID" totalsRowLabel="Celkem" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{72B2E65B-D615-42C2-9AAE-33E400E5293A}" name="ID" totalsRowLabel="Celkem" dataDxfId="9">
       <calculatedColumnFormula>"R"&amp;ROW($A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BC20C5C9-5919-4826-A623-300689436274}" name="Risk" dataDxfId="5" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{0C8BAE52-5BE6-4F40-BB1E-DB32549DF409}" name="Dopad" dataDxfId="4" totalsRowDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{B3C5C666-1EB6-4DC5-ABA1-16D42A2B0116}" name="MA (Mitigační akce)" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{8D4061F9-96CF-4B77-9653-49FCDCF301F4}" name="Priorita" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{8A33ED25-90FD-4225-9B0A-D74C7E54E6CD}" name="Pravděpodobnost" dataDxfId="1" totalsRowDxfId="7" dataCellStyle="Správně"/>
+    <tableColumn id="2" xr3:uid="{BC20C5C9-5919-4826-A623-300689436274}" name="Risk" dataDxfId="1" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{0C8BAE52-5BE6-4F40-BB1E-DB32549DF409}" name="Dopad" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{B3C5C666-1EB6-4DC5-ABA1-16D42A2B0116}" name="MA (Mitigační akce)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{8D4061F9-96CF-4B77-9653-49FCDCF301F4}" name="Priorita" totalsRowFunction="count" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8A33ED25-90FD-4225-9B0A-D74C7E54E6CD}" name="Pravděpodobnost" dataDxfId="0" totalsRowDxfId="2" dataCellStyle="Správně"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1688,33 +1468,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K33"/>
+  <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="35.7265625" customWidth="1"/>
-    <col min="4" max="4" width="34.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.26953125" customWidth="1"/>
-    <col min="9" max="9" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.26953125" customWidth="1"/>
-    <col min="11" max="11" width="35.7265625" customWidth="1"/>
-    <col min="12" max="12" width="10.86328125" customWidth="1"/>
-    <col min="13" max="13" width="9.40625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="2" spans="2:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="2:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1722,9 +1502,9 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="2:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="3" spans="2:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -1736,7 +1516,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -1745,234 +1525,190 @@
         <v>0</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="str">
-        <f t="shared" ref="B4:B8" si="0">"R"&amp;ROW($A1)</f>
+        <f>"R"&amp;ROW($A1)</f>
         <v>R1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="29">
         <v>5</v>
       </c>
-      <c r="F4" s="32">
-        <v>5</v>
-      </c>
-      <c r="G4" s="31">
-        <v>0.25</v>
+      <c r="G4" s="38">
+        <v>0.4</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="K4" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="str">
+        <f>"R"&amp;ROW($A2)</f>
+        <v>R2</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="30">
+        <v>4</v>
+      </c>
+      <c r="G5" s="35">
+        <v>0.65</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="J5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="str">
+        <f>"R"&amp;ROW($A3)</f>
+        <v>R3</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="31">
+        <v>4</v>
+      </c>
+      <c r="G6" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="str">
+        <f t="shared" ref="B7:B9" si="0">"R"&amp;ROW($A4)</f>
+        <v>R4</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B5" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>R2</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="34">
-        <v>4</v>
-      </c>
-      <c r="G5" s="33">
-        <v>0.75</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="D7" s="19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B6" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>R3</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="36">
+      <c r="E7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="32">
         <v>3</v>
       </c>
-      <c r="G6" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B7" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>R4</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="38">
-        <v>5</v>
-      </c>
-      <c r="G7" s="37">
-        <v>0.5</v>
+      <c r="G7" s="36">
+        <v>0.4</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="8" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>R5</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="40">
+      <c r="C8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="33">
         <v>5</v>
       </c>
-      <c r="G8" s="39">
-        <v>0.25</v>
+      <c r="G8" s="35">
+        <v>0.75</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="42">
+    <row r="9" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>R6</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="34">
         <v>3</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="37">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="44">
-        <v>5</v>
-      </c>
-      <c r="G10" s="43">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B11" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="45">
-        <v>5</v>
-      </c>
-      <c r="G11" s="46">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="13" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="14" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="15" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="16" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="17" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="18" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="19" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="20" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="21" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="22" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="23" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="24" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="25" ht="54.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="29" ht="24.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="30" ht="24.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="31" ht="24.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="32" ht="24.95" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="10" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{4F76D589-BBB3-407C-8F79-8A574AA13CB0}"/>
-  </hyperlinks>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR1\Dokumenty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR-Repo\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AF84A6-C92C-4C52-975E-31E4A2E9BE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83261AC-A471-46D4-BB7D-6DF4B242FF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Risk</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Členové týmu nebudou na stejné stránce, ohledně stavu projektu. Může dojít k nevědomosti, co už je hotové a co je třeba udělat dál.</t>
   </si>
   <si>
-    <t>Bylo by nutné úplně změnit použitou architekturu, po případě vytvořit 2. aplikaci.</t>
-  </si>
-  <si>
-    <t>Vyjasnění situace s konzultantem.</t>
-  </si>
-  <si>
     <t>Neznalost architektury</t>
   </si>
   <si>
@@ -89,30 +83,18 @@
     <t>Možné provedilné akce, snižující šanci nastání risku</t>
   </si>
   <si>
-    <t>Podpora pro iOS</t>
-  </si>
-  <si>
     <t>Nekvalitní kód</t>
   </si>
   <si>
     <t>Rychle psaný a nekontrolovaný kód vede ke slabé udržitelnosti a snížené použitelnosti (bugy) softwaru.</t>
   </si>
   <si>
-    <t>Náhlé změny cílů projektu</t>
-  </si>
-  <si>
     <t>Promarněný čas, nekompletní funkce.</t>
   </si>
   <si>
-    <t>Porovnat možné existující architektury =&gt; vytvořit dokument popisující možnou použitou. Vytvořit prototyp.</t>
-  </si>
-  <si>
     <t>Slabá komunikace</t>
   </si>
   <si>
-    <t>Trakování prováděné aktivity v Jire. Pravidelné updaty a souhrny v MS Teams.</t>
-  </si>
-  <si>
     <t>Ztráta člena týmu</t>
   </si>
   <si>
@@ -122,13 +104,22 @@
     <t>Snížení efektivnosti celého týmu a zvýšení zátěže pro zbývající členy.</t>
   </si>
   <si>
-    <t>Častá komunikace mezi jednotlivými členy. Alespoň 2 členové týmu se orientují v dané oblasti.</t>
-  </si>
-  <si>
-    <t>Jasná vize (dokument), stabilní architektura.</t>
-  </si>
-  <si>
-    <t>Průběžné testování.</t>
+    <t>Sledování prováděné aktivity v Jire. Přidělení práce hned na začátku sprintu. Kontrola před koncem. O nečekaných změnách ohledně práce informovat celý tým několik dní předem.</t>
+  </si>
+  <si>
+    <t>Porovnat vhodné architektury, vybrat tu, která splňuje nejvíc požadavků. Seznámit se s jejími funkcemi vytvořením drobného prototypu.</t>
+  </si>
+  <si>
+    <t>Častá komunikace mezi jednotlivými členy. Dokumentace prováděné činnosti (např XML komentáře).</t>
+  </si>
+  <si>
+    <t>Náhlé změny požadavků (zákazníkem)</t>
+  </si>
+  <si>
+    <t>Průběžné manuální testování. Příprava automatických testů.</t>
+  </si>
+  <si>
+    <t>Domluva se zákazníkem =&gt; Způsob "Něco za něco" - implementace funkcí na úkor jiných.</t>
   </si>
 </sst>
 </file>
@@ -242,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -422,28 +413,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color theme="1" tint="0.34998626667073579"/>
       </top>
       <bottom style="thin">
@@ -456,42 +447,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -499,186 +456,147 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,7 +607,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -733,71 +651,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="24" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="31" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="32" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="30" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -807,80 +710,6 @@
     <cellStyle name="Špatně" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -908,6 +737,45 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1109,6 +977,41 @@
         <charset val="238"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -1189,17 +1092,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G9" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="B3:G9" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G8" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="B3:G8" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72B2E65B-D615-42C2-9AAE-33E400E5293A}" name="ID" totalsRowLabel="Celkem" dataDxfId="9">
       <calculatedColumnFormula>"R"&amp;ROW($A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BC20C5C9-5919-4826-A623-300689436274}" name="Risk" dataDxfId="1" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{0C8BAE52-5BE6-4F40-BB1E-DB32549DF409}" name="Dopad" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{B3C5C666-1EB6-4DC5-ABA1-16D42A2B0116}" name="MA (Mitigační akce)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{8D4061F9-96CF-4B77-9653-49FCDCF301F4}" name="Priorita" totalsRowFunction="count" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{8A33ED25-90FD-4225-9B0A-D74C7E54E6CD}" name="Pravděpodobnost" dataDxfId="0" totalsRowDxfId="2" dataCellStyle="Správně"/>
+    <tableColumn id="2" xr3:uid="{BC20C5C9-5919-4826-A623-300689436274}" name="Risk" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0C8BAE52-5BE6-4F40-BB1E-DB32549DF409}" name="Dopad" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{B3C5C666-1EB6-4DC5-ABA1-16D42A2B0116}" name="MA (Mitigační akce)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{8D4061F9-96CF-4B77-9653-49FCDCF301F4}" name="Priorita" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8A33ED25-90FD-4225-9B0A-D74C7E54E6CD}" name="Pravděpodobnost" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1468,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,8 +1386,8 @@
     <col min="5" max="5" width="36.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="63" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
     <col min="11" max="11" width="35.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" customWidth="1"/>
@@ -1494,7 +1397,7 @@
     <row r="1" spans="2:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1504,7 +1407,7 @@
     </row>
     <row r="3" spans="2:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -1516,7 +1419,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -1525,34 +1428,34 @@
         <v>0</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="str">
         <f>"R"&amp;ROW($A1)</f>
         <v>R1</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="29">
+      <c r="E4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="25">
         <v>5</v>
       </c>
-      <c r="G4" s="38">
-        <v>0.4</v>
+      <c r="G4" s="30">
+        <v>0.45</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1560,81 +1463,81 @@
         <f>"R"&amp;ROW($A2)</f>
         <v>R2</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>7</v>
+      <c r="C5" s="22" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="30">
-        <v>4</v>
-      </c>
-      <c r="G5" s="35">
-        <v>0.65</v>
+        <v>6</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="26">
+        <v>5</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0.55000000000000004</v>
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
-        <f>"R"&amp;ROW($A3)</f>
+        <f t="shared" ref="B6:B8" si="0">"R"&amp;ROW($A3)</f>
         <v>R3</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="31">
-        <v>4</v>
-      </c>
-      <c r="G6" s="36">
-        <v>0.5</v>
+      <c r="C6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="27">
+        <v>2</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0.75</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="str">
-        <f t="shared" ref="B7:B9" si="0">"R"&amp;ROW($A4)</f>
+        <f t="shared" si="0"/>
         <v>R4</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="32">
-        <v>3</v>
-      </c>
-      <c r="G7" s="36">
-        <v>0.4</v>
+      <c r="C7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="33">
+        <v>5</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0.75</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1642,45 +1545,25 @@
         <f t="shared" si="0"/>
         <v>R5</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>29</v>
+      <c r="E8" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="33">
-        <v>5</v>
-      </c>
-      <c r="G8" s="35">
-        <v>0.75</v>
+        <v>3</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0.5</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>R6</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="34">
-        <v>3</v>
-      </c>
-      <c r="G9" s="37">
-        <v>0.5</v>
-      </c>
-    </row>
+    <row r="9" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1694,7 +1577,7 @@
     <row r="20" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1702,7 +1585,6 @@
     <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR-Repo\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83261AC-A471-46D4-BB7D-6DF4B242FF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B4378-752C-469F-91DD-C83921235C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>Porovnat vhodné architektury, vybrat tu, která splňuje nejvíc požadavků. Seznámit se s jejími funkcemi vytvořením drobného prototypu.</t>
   </si>
   <si>
-    <t>Častá komunikace mezi jednotlivými členy. Dokumentace prováděné činnosti (např XML komentáře).</t>
-  </si>
-  <si>
     <t>Náhlé změny požadavků (zákazníkem)</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Domluva se zákazníkem =&gt; Způsob "Něco za něco" - implementace funkcí na úkor jiných.</t>
+  </si>
+  <si>
+    <t>Častá komunikace mezi jednotlivými členy. Dokumentace prováděné činnosti (např XML komentáře v kódu).</t>
   </si>
 </sst>
 </file>
@@ -575,9 +575,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="1" tint="0.34998626667073579"/>
       </right>
       <top style="thin">
         <color theme="1" tint="0.34998626667073579"/>
@@ -589,9 +591,11 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
       <top style="thin">
         <color theme="1" tint="0.34998626667073579"/>
       </top>
@@ -1371,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K30"/>
+  <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1450,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="30">
         <v>0.45</v>
@@ -1488,7 +1492,7 @@
     </row>
     <row r="6" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
-        <f t="shared" ref="B6:B8" si="0">"R"&amp;ROW($A3)</f>
+        <f t="shared" ref="B6:B7" si="0">"R"&amp;ROW($A3)</f>
         <v>R3</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -1498,7 +1502,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="27">
         <v>2</v>
@@ -1519,13 +1523,13 @@
         <v>R4</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="33">
         <v>5</v>
@@ -1542,7 +1546,7 @@
     </row>
     <row r="8" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>"R"&amp;ROW($A5)</f>
         <v>R5</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -1552,7 +1556,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F8" s="33">
         <v>3</v>
@@ -1575,16 +1579,14 @@
     <row r="18" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR-Repo\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B4378-752C-469F-91DD-C83921235C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF38F1E3-9522-4D98-A883-D016811A8D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,13 +113,13 @@
     <t>Náhlé změny požadavků (zákazníkem)</t>
   </si>
   <si>
-    <t>Průběžné manuální testování. Příprava automatických testů.</t>
-  </si>
-  <si>
     <t>Domluva se zákazníkem =&gt; Způsob "Něco za něco" - implementace funkcí na úkor jiných.</t>
   </si>
   <si>
-    <t>Častá komunikace mezi jednotlivými členy. Dokumentace prováděné činnosti (např XML komentáře v kódu).</t>
+    <t>Průběžné manuální testování. Tvorba automatických testů.</t>
+  </si>
+  <si>
+    <t>Aspoň jeden další člen má přehled v problematice chybějící osoby. Dokumentace prováděné činnosti (např XML komentáře v kódu). Krátké sprinty (1-2 týdny).</t>
   </si>
 </sst>
 </file>
@@ -694,9 +694,6 @@
     <xf numFmtId="9" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="24" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -705,6 +702,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1378,7 +1378,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1387,7 @@
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.42578125" customWidth="1"/>
@@ -1452,8 +1452,8 @@
       <c r="F4" s="25">
         <v>4</v>
       </c>
-      <c r="G4" s="30">
-        <v>0.45</v>
+      <c r="G4" s="33">
+        <v>0.75</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>1</v>
@@ -1502,7 +1502,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="27">
         <v>2</v>
@@ -1525,14 +1525,14 @@
       <c r="C7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="33">
-        <v>5</v>
+      <c r="E7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="32">
+        <v>3</v>
       </c>
       <c r="G7" s="28">
         <v>0.75</v>
@@ -1544,7 +1544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
         <f>"R"&amp;ROW($A5)</f>
         <v>R5</v>
@@ -1552,13 +1552,13 @@
       <c r="C8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <v>3</v>
       </c>
       <c r="G8" s="29">

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR-Repo\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF38F1E3-9522-4D98-A883-D016811A8D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FC261C-717F-4555-B32A-2638950AA85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,7 +703,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="24" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1378,7 +1378,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="33">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="29">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="14" t="s">

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR-Repo\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FC261C-717F-4555-B32A-2638950AA85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DF2368-EABD-47C0-AABE-83CD8A244C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,17 +116,17 @@
     <t>Domluva se zákazníkem =&gt; Způsob "Něco za něco" - implementace funkcí na úkor jiných.</t>
   </si>
   <si>
-    <t>Průběžné manuální testování. Tvorba automatických testů.</t>
-  </si>
-  <si>
     <t>Aspoň jeden další člen má přehled v problematice chybějící osoby. Dokumentace prováděné činnosti (např XML komentáře v kódu). Krátké sprinty (1-2 týdny).</t>
+  </si>
+  <si>
+    <t>Použití architektury (MVVM), dodržování best practises. Průběžné manuální testování. Tvorba automatických testů.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +196,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +240,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -605,11 +618,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -703,14 +717,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="24" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="7" borderId="24" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Hypertextový odkaz" xfId="3" builtinId="8"/>
     <cellStyle name="Neutrální" xfId="2" builtinId="28"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Správně" xfId="4" builtinId="26"/>
     <cellStyle name="Špatně" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="13">
@@ -1378,7 +1393,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,7 +1468,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="33">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>1</v>
@@ -1502,7 +1517,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="27">
         <v>2</v>
@@ -1534,8 +1549,8 @@
       <c r="F7" s="32">
         <v>3</v>
       </c>
-      <c r="G7" s="28">
-        <v>0.75</v>
+      <c r="G7" s="29">
+        <v>0.55000000000000004</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>2</v>
@@ -1556,7 +1571,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="32">
         <v>3</v>

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR-Repo\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DF2368-EABD-47C0-AABE-83CD8A244C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAF8972-4436-4845-B256-74108B2BAEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Risk</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Členové týmu nebudou na stejné stránce, ohledně stavu projektu. Může dojít k nevědomosti, co už je hotové a co je třeba udělat dál.</t>
   </si>
   <si>
-    <t>Neznalost architektury</t>
-  </si>
-  <si>
-    <t>Bez známosti použité architektury není možné začít vývoj projektu.</t>
-  </si>
-  <si>
     <t>EuroKlíčenka 2.0 - RiskList</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>Sledování prováděné aktivity v Jire. Přidělení práce hned na začátku sprintu. Kontrola před koncem. O nečekaných změnách ohledně práce informovat celý tým několik dní předem.</t>
   </si>
   <si>
-    <t>Porovnat vhodné architektury, vybrat tu, která splňuje nejvíc požadavků. Seznámit se s jejími funkcemi vytvořením drobného prototypu.</t>
-  </si>
-  <si>
     <t>Náhlé změny požadavků (zákazníkem)</t>
   </si>
   <si>
@@ -120,6 +111,24 @@
   </si>
   <si>
     <t>Použití architektury (MVVM), dodržování best practises. Průběžné manuální testování. Tvorba automatických testů.</t>
+  </si>
+  <si>
+    <t>Způsob načítání dat</t>
+  </si>
+  <si>
+    <t>Špatný způsob, jak data načítat povede k složité udržitelnosti a následovném rozšiřování databáze.</t>
+  </si>
+  <si>
+    <t>Neznalost technologie</t>
+  </si>
+  <si>
+    <t>Bez známosti použité technologie není možné začít vývoj projektu.</t>
+  </si>
+  <si>
+    <t>Porovnat vhodné technologie, vybrat tu, která splňuje nejvíc požadavků. Seznámit se s jejími součásmi vytvořením drobného prototypu.</t>
+  </si>
+  <si>
+    <t>Prozkoumat nejpoužívanější způsoby správy dat pro vybranou technologii. Zvolit tu pro projekt nejvhodnější.</t>
   </si>
 </sst>
 </file>
@@ -246,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -609,6 +618,32 @@
       <right style="thin">
         <color theme="1" tint="0.34998626667073579"/>
       </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
       <top style="thin">
         <color theme="1" tint="0.34998626667073579"/>
       </top>
@@ -625,7 +660,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,6 +754,18 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="7" borderId="24" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1111,8 +1158,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G8" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="B3:G8" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G9" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="B3:G9" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72B2E65B-D615-42C2-9AAE-33E400E5293A}" name="ID" totalsRowLabel="Celkem" dataDxfId="9">
       <calculatedColumnFormula>"R"&amp;ROW($A1)</calculatedColumnFormula>
@@ -1392,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1463,7 @@
     <row r="1" spans="2:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1426,7 +1473,7 @@
     </row>
     <row r="3" spans="2:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -1438,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -1447,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1456,13 +1503,13 @@
         <v>R1</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="25">
         <v>4</v>
@@ -1474,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1483,13 +1530,13 @@
         <v>R2</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F5" s="26">
         <v>5</v>
@@ -1499,10 +1546,10 @@
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1511,25 +1558,25 @@
         <v>R3</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="28">
         <v>0.75</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1538,13 +1585,13 @@
         <v>R4</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="32">
         <v>3</v>
@@ -1556,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,13 +1612,13 @@
         <v>R5</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" s="31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" s="32">
         <v>3</v>
@@ -1582,7 +1629,27 @@
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="34" t="str">
+        <f>"R"&amp;ROW($A6)</f>
+        <v>R6</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="37">
+        <v>3</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0.75</v>
+      </c>
+    </row>
     <row r="10" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR-Repo\Dokumenty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR-Repo\RPR1\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAF8972-4436-4845-B256-74108B2BAEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD78E677-EBF0-48F1-9CE7-ABFD7C8EDDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>Aspoň jeden další člen má přehled v problematice chybějící osoby. Dokumentace prováděné činnosti (např XML komentáře v kódu). Krátké sprinty (1-2 týdny).</t>
   </si>
   <si>
-    <t>Použití architektury (MVVM), dodržování best practises. Průběžné manuální testování. Tvorba automatických testů.</t>
-  </si>
-  <si>
     <t>Způsob načítání dat</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>Prozkoumat nejpoužívanější způsoby správy dat pro vybranou technologii. Zvolit tu pro projekt nejvhodnější.</t>
+  </si>
+  <si>
+    <t>Použití architektury, dodržování best practises. Průběžné manuální testování. Tvorba automatických testů.</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -766,6 +766,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="7" borderId="25" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1440,7 +1443,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,10 +1515,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="33">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>1</v>
@@ -1530,19 +1533,19 @@
         <v>R2</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>29</v>
-      </c>
       <c r="F5" s="26">
-        <v>5</v>
-      </c>
-      <c r="G5" s="29">
-        <v>0.5</v>
+        <v>3</v>
+      </c>
+      <c r="G5" s="38">
+        <v>0.1</v>
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="14" t="s">
@@ -1564,13 +1567,13 @@
         <v>14</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" s="27">
-        <v>3</v>
-      </c>
-      <c r="G6" s="28">
-        <v>0.75</v>
+        <v>5</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0.65</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>8</v>
@@ -1594,10 +1597,10 @@
         <v>22</v>
       </c>
       <c r="F7" s="32">
-        <v>3</v>
-      </c>
-      <c r="G7" s="29">
-        <v>0.55000000000000004</v>
+        <v>2</v>
+      </c>
+      <c r="G7" s="38">
+        <v>0</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>2</v>
@@ -1623,8 +1626,8 @@
       <c r="F8" s="32">
         <v>3</v>
       </c>
-      <c r="G8" s="29">
-        <v>0.5</v>
+      <c r="G8" s="38">
+        <v>0</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
@@ -1635,16 +1638,16 @@
         <v>R6</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="28">
         <v>0.75</v>

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR-Repo\RPR1\Dokumenty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ondrej\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD78E677-EBF0-48F1-9CE7-ABFD7C8EDDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E0D93D-9BE0-49BF-9F60-6F1A959299F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RiskList" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Risk</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Použití architektury, dodržování best practises. Průběžné manuální testování. Tvorba automatických testů.</t>
+  </si>
+  <si>
+    <t>Testování aplikace</t>
+  </si>
+  <si>
+    <t>Pravidelné testování po nasazení určité části kodu</t>
+  </si>
+  <si>
+    <t>Netestovat aplikaci v průběhu vývoje bude mit za následek chyby a spozdění ve vývoji aplikace</t>
   </si>
 </sst>
 </file>
@@ -660,7 +669,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -768,6 +777,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="7" borderId="25" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1161,8 +1173,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G9" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="B3:G9" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G10" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="B3:G10" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72B2E65B-D615-42C2-9AAE-33E400E5293A}" name="ID" totalsRowLabel="Celkem" dataDxfId="9">
       <calculatedColumnFormula>"R"&amp;ROW($A1)</calculatedColumnFormula>
@@ -1442,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,7 +1665,25 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="str">
+        <f>"R"&amp;ROW($A7)</f>
+        <v>R7</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="37">
+        <v>4</v>
+      </c>
+      <c r="G10" s="39"/>
+    </row>
     <row r="11" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ondrej\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR-Repo\RPR1\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E0D93D-9BE0-49BF-9F60-6F1A959299F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFC722A-AB29-4D83-BFB7-08CF563728D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RiskList" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
     <t>Pravidelné testování po nasazení určité části kodu</t>
   </si>
   <si>
-    <t>Netestovat aplikaci v průběhu vývoje bude mit za následek chyby a spozdění ve vývoji aplikace</t>
+    <t>Netestovat aplikaci v průběhu vývoje bude mít za následek chyby a spozdění ve vývoji aplikace</t>
   </si>
 </sst>
 </file>
@@ -264,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -658,6 +658,21 @@
       </top>
       <bottom style="thin">
         <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,14 +788,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="7" borderId="25" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1454,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="33">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>1</v>
@@ -1556,8 +1571,8 @@
       <c r="F5" s="26">
         <v>3</v>
       </c>
-      <c r="G5" s="38">
-        <v>0.1</v>
+      <c r="G5" s="37">
+        <v>0</v>
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="14" t="s">
@@ -1582,10 +1597,10 @@
         <v>30</v>
       </c>
       <c r="F6" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="29">
-        <v>0.65</v>
+        <v>0.25</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>8</v>
@@ -1611,7 +1626,7 @@
       <c r="F7" s="32">
         <v>2</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="37">
         <v>0</v>
       </c>
       <c r="J7" s="15" t="s">
@@ -1638,7 +1653,7 @@
       <c r="F8" s="32">
         <v>3</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="37">
         <v>0</v>
       </c>
       <c r="J8" s="8"/>
@@ -1658,8 +1673,8 @@
       <c r="E9" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="37">
-        <v>4</v>
+      <c r="F9" s="32">
+        <v>5</v>
       </c>
       <c r="G9" s="28">
         <v>0.75</v>
@@ -1679,10 +1694,10 @@
       <c r="E10" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="39">
         <v>4</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR-Repo\RPR1\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFC722A-AB29-4D83-BFB7-08CF563728D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB5E7F9-88B7-4FB1-97AA-205D1ED0CDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,10 +134,10 @@
     <t>Testování aplikace</t>
   </si>
   <si>
-    <t>Pravidelné testování po nasazení určité části kodu</t>
-  </si>
-  <si>
     <t>Netestovat aplikaci v průběhu vývoje bude mít za následek chyby a spozdění ve vývoji aplikace</t>
+  </si>
+  <si>
+    <t>Pravidelné testování po nasazení určité části kodu, unit testy i manuálně. Pravidelné spouštění aplikace na reálném zařízení.</t>
   </si>
 </sst>
 </file>
@@ -684,7 +684,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -789,9 +789,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="7" borderId="25" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1470,7 +1467,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,15 +1686,17 @@
         <v>31</v>
       </c>
       <c r="D10" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="39">
+      <c r="F10" s="38">
         <v>4</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="29">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="11" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR-Repo\RPR1\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB5E7F9-88B7-4FB1-97AA-205D1ED0CDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A086026-8F81-4980-A679-BB98B5129301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1467,7 +1467,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1674,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="28">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR-Repo\RPR1\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A086026-8F81-4980-A679-BB98B5129301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0C89E1-30FB-4825-8793-51A6D12F2349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,14 +174,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -223,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,11 +236,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
@@ -677,14 +664,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -692,19 +678,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -716,13 +702,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -764,9 +750,6 @@
     <xf numFmtId="9" fontId="4" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -776,7 +759,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="7" borderId="24" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,19 +771,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="7" borderId="25" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="25" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Hypertextový odkaz" xfId="3" builtinId="8"/>
-    <cellStyle name="Neutrální" xfId="2" builtinId="28"/>
+  <cellStyles count="4">
+    <cellStyle name="Hypertextový odkaz" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutrální" xfId="1" builtinId="28"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
-    <cellStyle name="Správně" xfId="4" builtinId="26"/>
-    <cellStyle name="Špatně" xfId="1" builtinId="27"/>
+    <cellStyle name="Správně" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -1467,7 +1449,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1523,7 @@
       <c r="F4" s="25">
         <v>3</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="32">
         <v>0</v>
       </c>
       <c r="J4" s="14" t="s">
@@ -1568,7 +1550,7 @@
       <c r="F5" s="26">
         <v>3</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="36">
         <v>0</v>
       </c>
       <c r="H5" s="3"/>
@@ -1596,7 +1578,7 @@
       <c r="F6" s="27">
         <v>4</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>0.25</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -1614,16 +1596,16 @@
       <c r="C7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <v>2</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="36">
         <v>0</v>
       </c>
       <c r="J7" s="15" t="s">
@@ -1641,60 +1623,60 @@
       <c r="C8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <v>3</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="36">
         <v>0</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="str">
+      <c r="B9" s="33" t="str">
         <f>"R"&amp;ROW($A6)</f>
         <v>R6</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>5</v>
       </c>
-      <c r="G9" s="28">
-        <v>0.6</v>
+      <c r="G9" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="str">
+      <c r="B10" s="33" t="str">
         <f>"R"&amp;ROW($A7)</f>
         <v>R7</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <v>4</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <v>0.33</v>
       </c>
     </row>
@@ -1717,7 +1699,7 @@
     <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR-Repo\RPR1\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0C89E1-30FB-4825-8793-51A6D12F2349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072571A7-3FE0-4466-856B-EA6954797637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Risk</t>
   </si>
@@ -138,13 +138,22 @@
   </si>
   <si>
     <t>Pravidelné testování po nasazení určité části kodu, unit testy i manuálně. Pravidelné spouštění aplikace na reálném zařízení.</t>
+  </si>
+  <si>
+    <t>Změna webových stránek</t>
+  </si>
+  <si>
+    <t>Pokud Euroklíč změní URL k souboru dat o místech osazených eurozámkem, znamená to aplikaci úplné odříznutí od dat.</t>
+  </si>
+  <si>
+    <t>Domluva s vedoucími Euroklíče o potřebách aplikace. Držení offline EUK dat.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +223,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,8 +267,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -663,14 +685,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -762,9 +842,6 @@
     <xf numFmtId="9" fontId="8" fillId="6" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,12 +854,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="7" borderId="35" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Hypertextový odkaz" xfId="2" builtinId="8"/>
     <cellStyle name="Neutrální" xfId="1" builtinId="28"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
     <cellStyle name="Správně" xfId="3" builtinId="26"/>
+    <cellStyle name="Špatně" xfId="4" builtinId="27"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -1167,8 +1263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G10" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="B3:G10" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G11" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="B3:G11" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72B2E65B-D615-42C2-9AAE-33E400E5293A}" name="ID" totalsRowLabel="Celkem" dataDxfId="9">
       <calculatedColumnFormula>"R"&amp;ROW($A1)</calculatedColumnFormula>
@@ -1448,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,7 +1646,7 @@
       <c r="F5" s="26">
         <v>3</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="35">
         <v>0</v>
       </c>
       <c r="H5" s="3"/>
@@ -1576,7 +1672,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" s="28">
         <v>0.25</v>
@@ -1605,7 +1701,7 @@
       <c r="F7" s="31">
         <v>2</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>0</v>
       </c>
       <c r="J7" s="15" t="s">
@@ -1632,55 +1728,75 @@
       <c r="F8" s="31">
         <v>3</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>0</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="str">
+      <c r="B9" s="2" t="str">
         <f>"R"&amp;ROW($A6)</f>
         <v>R6</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="34" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="31">
-        <v>5</v>
-      </c>
-      <c r="G9" s="36">
+        <v>2</v>
+      </c>
+      <c r="G9" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="str">
+      <c r="B10" s="2" t="str">
         <f>"R"&amp;ROW($A7)</f>
         <v>R7</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="36">
         <v>4</v>
       </c>
-      <c r="G10" s="28">
-        <v>0.33</v>
+      <c r="G10" s="35">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="37" t="str">
+        <f>"R"&amp;ROW($A8)</f>
+        <v>R8</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="41">
+        <v>6</v>
+      </c>
+      <c r="G11" s="42">
+        <v>1</v>
+      </c>
+    </row>
     <row r="12" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Dokumenty/RiskList.xlsx
+++ b/Dokumenty/RiskList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Projekty\School\EUK2\RPR-Repo\RPR1\Dokumenty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ondrej/Projects/euroklicenka/Dokumenty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072571A7-3FE0-4466-856B-EA6954797637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B08A95E-0CF1-294B-820A-935E1F350C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RiskList" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Risk</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Testování aplikace</t>
   </si>
   <si>
-    <t>Netestovat aplikaci v průběhu vývoje bude mít za následek chyby a spozdění ve vývoji aplikace</t>
-  </si>
-  <si>
     <t>Pravidelné testování po nasazení určité části kodu, unit testy i manuálně. Pravidelné spouštění aplikace na reálném zařízení.</t>
   </si>
   <si>
@@ -147,6 +144,36 @@
   </si>
   <si>
     <t>Domluva s vedoucími Euroklíče o potřebách aplikace. Držení offline EUK dat.</t>
+  </si>
+  <si>
+    <t>Změna technologie</t>
+  </si>
+  <si>
+    <t>Použitá technologie (Flutter, Dart), která byla zvolena předchozím týmem závisí na externích knihovnách, které se mohou měnit.</t>
+  </si>
+  <si>
+    <t>Použít best-practices pro správu externích závislostí. Udržovat knihovny v průběhu vývoje aktualizované.</t>
+  </si>
+  <si>
+    <t>Bezpečnostní chyby v externích knihovnách</t>
+  </si>
+  <si>
+    <t>Externí knihovny mohou obsahovat bezpečnostní chyby, které vynutí aktualizaci knihoven.</t>
+  </si>
+  <si>
+    <t>Používat pouze podporované verze externích knihoven, SDK a kompilátoru, aby bylo možné knihovny aktualizovat na verzi, která má opravené bezpečnostní chyby.</t>
+  </si>
+  <si>
+    <t>Netestovat aplikaci v průběhu vývoje bude mít za následek chyby a zpozdění ve vývoji aplikace</t>
+  </si>
+  <si>
+    <t>Technologický dluh</t>
+  </si>
+  <si>
+    <t>Kód existujícího projektu je neudržovaný nebo neudržovatelný.</t>
+  </si>
+  <si>
+    <t>Důkladné prostudování stávajícího zdrojového kódu a použitých technologií.</t>
   </si>
 </sst>
 </file>
@@ -750,7 +777,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -854,31 +881,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="7" borderId="35" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="7" borderId="35" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Hypertextový odkaz" xfId="2" builtinId="8"/>
-    <cellStyle name="Neutrální" xfId="1" builtinId="28"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
-    <cellStyle name="Správně" xfId="3" builtinId="26"/>
-    <cellStyle name="Špatně" xfId="4" builtinId="27"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -1263,8 +1296,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G11" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="B3:G11" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}" name="RiskList" displayName="RiskList" ref="B3:G14" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="B3:G14" xr:uid="{07D219B5-F8E7-49B9-9FB8-325B649B9EA2}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72B2E65B-D615-42C2-9AAE-33E400E5293A}" name="ID" totalsRowLabel="Celkem" dataDxfId="9">
       <calculatedColumnFormula>"R"&amp;ROW($A1)</calculatedColumnFormula>
@@ -1544,29 +1577,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="129" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5" customWidth="1"/>
     <col min="9" max="9" width="63" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="35.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1576,7 +1609,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="2:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1602,7 +1635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="str">
         <f>"R"&amp;ROW($A1)</f>
         <v>R1</v>
@@ -1629,7 +1662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="str">
         <f>"R"&amp;ROW($A2)</f>
         <v>R2</v>
@@ -1657,7 +1690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="str">
         <f t="shared" ref="B6:B7" si="0">"R"&amp;ROW($A3)</f>
         <v>R3</v>
@@ -1684,7 +1717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>R4</v>
@@ -1711,7 +1744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="str">
         <f>"R"&amp;ROW($A5)</f>
         <v>R5</v>
@@ -1734,7 +1767,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="str">
         <f>"R"&amp;ROW($A6)</f>
         <v>R6</v>
@@ -1755,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="str">
         <f>"R"&amp;ROW($A7)</f>
         <v>R7</v>
@@ -1764,10 +1797,10 @@
         <v>31</v>
       </c>
       <c r="D10" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>33</v>
       </c>
       <c r="F10" s="36">
         <v>4</v>
@@ -1776,19 +1809,19 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="37" t="str">
         <f>"R"&amp;ROW($A8)</f>
         <v>R8</v>
       </c>
       <c r="C11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="E11" s="40" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>36</v>
       </c>
       <c r="F11" s="41">
         <v>6</v>
@@ -1797,23 +1830,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="54.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="43" t="str">
+        <f>"R"&amp;ROW($A9)</f>
+        <v>R9</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="41">
+        <v>6</v>
+      </c>
+      <c r="G12" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="43" t="str">
+        <f>"R"&amp;ROW($A10)</f>
+        <v>R10</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="41">
+        <v>6</v>
+      </c>
+      <c r="G13" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="43" t="str">
+        <f>"R"&amp;ROW($A11)</f>
+        <v>R11</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="41">
+        <v>3</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
